--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value764.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value764.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9976930028175895</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>2.686210815490723</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>4.377173523118851</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.209359408166126</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.211516002554053</v>
+        <v>0.9605678915977478</v>
       </c>
     </row>
   </sheetData>
